--- a/HackData.xlsx
+++ b/HackData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7380" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="16" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="155">
   <si>
     <t>RowNum</t>
   </si>
@@ -530,6 +530,62 @@
   <si>
     <t>ChartPnL worksheet has the sample calculations to help you make decisions around your code</t>
   </si>
+  <si>
+    <t>• showPnL /global/apac/mat:0857.Hong Kong (petrochina)</t>
+  </si>
+  <si>
+    <t>• showPnL /global</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>showPnL /global/emea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>showPnL /global/apac/tech</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -539,7 +595,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +624,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -606,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -621,6 +707,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,10 +754,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -674,16 +768,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Global</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Portfolio Holdings &amp; Intra-day Profit(Loss)</a:t>
+              <a:t>Global Portfolio Holdings &amp; Intra-day Profit(Loss)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.2843039852424665E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -697,10 +794,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -734,21 +832,41 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:miter lim="800000"/>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -862,8 +980,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="315"/>
-        <c:axId val="183440448"/>
-        <c:axId val="183440840"/>
+        <c:axId val="204627888"/>
+        <c:axId val="203378992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -883,19 +1001,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1010,49 +1122,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183441624"/>
-        <c:axId val="183441232"/>
+        <c:axId val="205892008"/>
+        <c:axId val="136689360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183440448"/>
+        <c:axId val="204627888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1063,8 +1156,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1075,7 +1169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183440840"/>
+        <c:crossAx val="203378992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183440840"/>
+        <c:axId val="203378992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,23 +1186,12 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1132,8 +1215,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1144,12 +1228,589 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183440448"/>
+        <c:crossAx val="204627888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183441232"/>
+        <c:axId val="136689360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205892008"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="205892008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136689360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartPnL!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Holdings Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartPnL!$J$4:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>PREV_EOD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7AM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8AM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9AM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10AM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11AM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12PM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1PM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2PM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3PM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4PM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5PM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6PM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartPnL!$K$4:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2130081.5930232559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2132919.0930232559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2139742.825581396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2133896.9651162792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2115384.3488372094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2090179.5232558141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2125688.7558139535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2153964.6511627906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2134731.1046511629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2113037.1627906975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2106635.0348837208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2118894.3372093025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2128577.6744186049</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2112332.9069767441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443207648"/>
+        <c:axId val="443208432"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartPnL!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intra-day PnL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartPnL!$J$4:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>PREV_EOD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7AM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8AM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9AM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10AM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11AM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12PM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1PM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2PM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3PM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4PM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5PM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6PM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartPnL!$L$4:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>2837.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9661.2325581400655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3815.3720930232666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14697.244186046533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-39902.069767441833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4392.8372093024664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23883.058139534667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4649.5116279069334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17044.430232558399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-23446.558139535133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11187.255813953467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1503.9186046510004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17748.686046511866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="444959856"/>
+        <c:axId val="444959464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="443207648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443208432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443208432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443207648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="444959464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,8 +1834,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1185,12 +1847,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183441624"/>
+        <c:crossAx val="444959856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="183441624"/>
+        <c:axId val="444959856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,8 +1862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183441232"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="444959464"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1216,7 +1877,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1233,8 +1894,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1252,14 +1914,1163 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartPnL!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Holdings Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartPnL!$E$26:$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>PREV_EOD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7AM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8AM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9AM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10AM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11AM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12PM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1PM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2PM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3PM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4PM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5PM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6PM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartPnL!$F$26:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1952.3647959183672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1749.5969387755104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1633.7295918367347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1401.9948979591836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2114.579081632653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1712.9056122448978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2108.7857142857147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1693.5943877551019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2122.3035714285716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1359.5102040816325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1510.1377551020407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2052.7831632653065</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2074.0255102040819</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983.2627551020407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="279703072"/>
+        <c:axId val="443208040"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartPnL!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intra-day PnL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartPnL!$E$26:$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>PREV_EOD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7AM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8AM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9AM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10AM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11AM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12PM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1PM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2PM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3PM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4PM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5PM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6PM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartPnL!$G$26:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>-202.76785714285688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-318.63520408163254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-550.36989795918362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.21428571428578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-239.4591836734694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156.42091836734744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-258.7704081632653</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.93877551020432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-592.8545918367347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-442.22704081632651</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100.41836734693925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121.66071428571468</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.897959183673493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="446433488"/>
+        <c:axId val="446433096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="279703072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443208040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443208040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279703072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446433096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446433488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="446433488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="446433096"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartPnL!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Holdings Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartPnL!$J$26:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>PREV_EOD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7AM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8AM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9AM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10AM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11AM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12PM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1PM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2PM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3PM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4PM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5PM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6PM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartPnL!$K$26:$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>404808.55456674739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>406755.10254631611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404822.21711403748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413402.06027126155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>411309.1212609518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>406132.98381203826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>408594.16620050644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>402506.04739236366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401688.56782693672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>412261.17866633873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>403602.46705915465</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>413793.00781605917</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>414998.64792534616</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>404316.55338408414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441812352"/>
+        <c:axId val="281937808"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartPnL!$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intra-day PnL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartPnL!$J$26:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>PREV_EOD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7AM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8AM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9AM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10AM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11AM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12PM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1PM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2PM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3PM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4PM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5PM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6PM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartPnL!$L$26:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>-1723326.4904769398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1725259.3759092186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1716679.5327519944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1718772.4717623042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1723948.6092112176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1721487.4268227494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1727575.5456308923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1728393.0251963192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1717820.4143569171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1726479.1259641014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1716288.5852071969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1715082.9450979098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1725765.0396391717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="446446952"/>
+        <c:axId val="446446560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441812352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="281937808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="281937808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441812352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446446560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446446952"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="446446952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="446446560"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1326,31 +3137,164 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1359,14 +3303,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1381,8 +3322,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1392,18 +3334,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1414,125 +3361,94 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:miter lim="800000"/>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:miter lim="800000"/>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
+            <a:shade val="95000"/>
           </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -1551,16 +3467,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1572,22 +3489,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1601,11 +3518,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1619,11 +3536,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1644,23 +3561,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1673,27 +3579,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1707,11 +3599,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1725,11 +3617,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1738,13 +3630,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1752,7 +3645,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1765,10 +3658,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1781,11 +3686,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1794,27 +3700,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1824,8 +3729,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1839,17 +3745,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1858,8 +3762,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1875,20 +3780,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1902,6 +5316,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>392905</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>881061</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2175,7 +5679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2210,8 +5714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,7 +6444,7 @@
         <v>56639.519999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2982,7 +6486,7 @@
         <v>214568.31</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3024,7 +6528,7 @@
         <v>126371.08</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3066,7 +6570,7 @@
         <v>256047.12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3108,7 +6612,7 @@
         <v>286827.52000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3150,7 +6654,7 @@
         <v>330731.48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3192,7 +6696,7 @@
         <v>369329.88</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3234,7 +6738,7 @@
         <v>965577.28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3276,7 +6780,7 @@
         <v>50132.160000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3317,8 +6821,12 @@
         <f t="shared" si="3"/>
         <v>318473.19767441862</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2134731.1046511629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3360,7 +6868,7 @@
         <v>132340.60465116278</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3402,7 +6910,7 @@
         <v>200986.79069767441</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3444,7 +6952,7 @@
         <v>46079.197674418603</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3486,7 +6994,7 @@
         <v>253822.76744186049</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3528,7 +7036,7 @@
         <v>151679.17441860464</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3570,7 +7078,7 @@
         <v>16228.197674418605</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3612,7 +7120,7 @@
         <v>35238.976744186046</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3654,7 +7162,7 @@
         <v>58752</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3696,7 +7204,7 @@
         <v>22200.174418604653</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3738,7 +7246,7 @@
         <v>14979.837209302323</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3780,7 +7288,7 @@
         <v>544817.40697674418</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3822,7 +7330,7 @@
         <v>40985.93023255813</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3864,7 +7372,7 @@
         <v>12785.651162790698</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3906,7 +7414,7 @@
         <v>269888.16279069771</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3948,7 +7456,7 @@
         <v>15473.034883720929</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3990,7 +7498,7 @@
         <v>72422.359296415787</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -4032,7 +7540,7 @@
         <v>6396.8571428571431</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -4074,7 +7582,7 @@
         <v>2504.3699421965321</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -4116,7 +7624,7 @@
         <v>243976.69364161853</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -4157,8 +7665,12 @@
         <f t="shared" si="3"/>
         <v>77880.897959183683</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>401688.56782693672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -4200,7 +7712,7 @@
         <v>23461.132653061224</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -4242,7 +7754,7 @@
         <v>18391.632653061228</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -4512,8 +8024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5242,7 +8754,7 @@
         <v>60179.490000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5284,7 +8796,7 @@
         <v>230938.40000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5326,7 +8838,7 @@
         <v>121287.31999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5368,7 +8880,7 @@
         <v>270572.94</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5410,7 +8922,7 @@
         <v>291952.63999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5452,7 +8964,7 @@
         <v>322160.56</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5494,7 +9006,7 @@
         <v>368372.31</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5536,7 +9048,7 @@
         <v>977732.48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5578,7 +9090,7 @@
         <v>55306.880000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5619,8 +9131,12 @@
         <f t="shared" si="3"/>
         <v>319496.72093023255</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2113037.1627906975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5662,7 +9178,7 @@
         <v>131850</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5704,7 +9220,7 @@
         <v>202838.51162790696</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5746,7 +9262,7 @@
         <v>39359.825581395351</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5788,7 +9304,7 @@
         <v>244277.37209302327</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5830,7 +9346,7 @@
         <v>153029.60465116278</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5872,7 +9388,7 @@
         <v>15423.279069767443</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5914,7 +9430,7 @@
         <v>31283.58139534884</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5956,7 +9472,7 @@
         <v>61404.27906976745</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5998,7 +9514,7 @@
         <v>18642.953488372092</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6040,7 +9556,7 @@
         <v>15540</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6082,7 +9598,7 @@
         <v>545811.65116279072</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6124,7 +9640,7 @@
         <v>44226.569767441862</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6166,7 +9682,7 @@
         <v>12670.465116279069</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6208,7 +9724,7 @@
         <v>259413.76744186046</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6250,7 +9766,7 @@
         <v>17768.58139534884</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6292,7 +9808,7 @@
         <v>71997.002687055283</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6334,7 +9850,7 @@
         <v>6909.7704081632664</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6376,7 +9892,7 @@
         <v>2272.1098265895953</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6418,7 +9934,7 @@
         <v>251335.95375722545</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6459,8 +9975,12 @@
         <f t="shared" si="3"/>
         <v>83494.538265306124</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>412261.17866633873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6502,7 +10022,7 @@
         <v>24455.877551020407</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6544,7 +10064,7 @@
         <v>18041.867346938776</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6813,8 +10333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7543,7 +11063,7 @@
         <v>54766.52</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7585,7 +11105,7 @@
         <v>215464.81</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7627,7 +11147,7 @@
         <v>116996.44</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7669,7 +11189,7 @@
         <v>272572.74</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7711,7 +11231,7 @@
         <v>297239.04000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7753,7 +11273,7 @@
         <v>326225.12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7795,7 +11315,7 @@
         <v>370482.21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7837,7 +11357,7 @@
         <v>952445.12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7879,7 +11399,7 @@
         <v>53741.279999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7920,8 +11440,12 @@
         <f t="shared" si="3"/>
         <v>322882.22093023261</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2106635.0348837208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7963,7 +11487,7 @@
         <v>119727.97674418605</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8005,7 +11529,7 @@
         <v>221731.06976744186</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8047,7 +11571,7 @@
         <v>52823.093023255817</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8089,7 +11613,7 @@
         <v>238947.11627906977</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8131,7 +11655,7 @@
         <v>149351.83720930232</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8173,7 +11697,7 @@
         <v>14384.674418604651</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8215,7 +11739,7 @@
         <v>30804.139534883721</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8257,7 +11781,7 @@
         <v>54277.953488372092</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8299,7 +11823,7 @@
         <v>21525.081395348836</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8341,7 +11865,7 @@
         <v>12847.604651162792</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8383,7 +11907,7 @@
         <v>540613.1744186047</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8425,7 +11949,7 @@
         <v>45042.558139534885</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8467,7 +11991,7 @@
         <v>9829.209302325582</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8509,7 +12033,7 @@
         <v>253518.00000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8551,7 +12075,7 @@
         <v>18329.325581395351</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8593,7 +12117,7 @@
         <v>71571.120749547001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8635,7 +12159,7 @@
         <v>7200.9438775510198</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8677,7 +12201,7 @@
         <v>2307.4537572254339</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8719,7 +12243,7 @@
         <v>245066.17341040462</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8760,8 +12284,12 @@
         <f t="shared" si="3"/>
         <v>79030.896683673462</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>403602.46705915465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8803,7 +12331,7 @@
         <v>25308.091836734693</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8845,7 +12373,7 @@
         <v>17882.040816326531</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9114,8 +12642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9844,7 +13372,7 @@
         <v>59767.43</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9886,7 +13414,7 @@
         <v>236407.05</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9928,7 +13456,7 @@
         <v>115014.24</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9970,7 +13498,7 @@
         <v>266955.12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10012,7 +13540,7 @@
         <v>286881.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10054,7 +13582,7 @@
         <v>314274.43000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10096,7 +13624,7 @@
         <v>371098.95</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10138,7 +13666,7 @@
         <v>977141.76000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10180,7 +13708,7 @@
         <v>53922.559999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10221,8 +13749,12 @@
         <f t="shared" si="3"/>
         <v>328209.79069767438</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2118894.3372093025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10264,7 +13796,7 @@
         <v>119216.93023255814</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10306,7 +13838,7 @@
         <v>233492</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10348,7 +13880,7 @@
         <v>55520.651162790702</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10390,7 +13922,7 @@
         <v>241957.93023255811</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10432,7 +13964,7 @@
         <v>140559.67441860467</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10474,7 +14006,7 @@
         <v>17500.488372093023</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10516,7 +14048,7 @@
         <v>32142.581395348836</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10558,7 +14090,7 @@
         <v>54733.395348837214</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10600,7 +14132,7 @@
         <v>22381.930232558138</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10642,7 +14174,7 @@
         <v>15160.534883720931</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10684,7 +14216,7 @@
         <v>536920.26744186052</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10726,7 +14258,7 @@
         <v>40542.965116279076</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10768,7 +14300,7 @@
         <v>11115.453488372093</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10810,7 +14342,7 @@
         <v>255316.00000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10852,7 +14384,7 @@
         <v>14123.744186046511</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10894,7 +14426,7 @@
         <v>71858.013594378412</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10936,7 +14468,7 @@
         <v>6546.9234693877552</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10978,7 +14510,7 @@
         <v>2587.6806358381505</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11020,7 +14552,7 @@
         <v>250323.79190751445</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11061,8 +14593,12 @@
         <f t="shared" si="3"/>
         <v>84279.213010204068</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>413793.00781605917</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11104,7 +14640,7 @@
         <v>24628.102040816328</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11146,7 +14682,7 @@
         <v>18551.459183673469</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11415,8 +14951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12145,7 +15681,7 @@
         <v>58830.93</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12187,7 +15723,7 @@
         <v>220126.61</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12229,7 +15765,7 @@
         <v>122126.84</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12271,7 +15807,7 @@
         <v>258519.59999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12313,7 +15849,7 @@
         <v>298296.32000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12355,7 +15891,7 @@
         <v>310209.87</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12397,7 +15933,7 @@
         <v>365483.37</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12439,7 +15975,7 @@
         <v>952104.32</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12481,7 +16017,7 @@
         <v>49917.919999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12522,8 +16058,12 @@
         <f t="shared" si="3"/>
         <v>333169.94186046516</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2128577.6744186049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12565,7 +16105,7 @@
         <v>121710.83720930232</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12607,7 +16147,7 @@
         <v>224408.5581395349</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12649,7 +16189,7 @@
         <v>59248.186046511633</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12691,7 +16231,7 @@
         <v>253309.81395348837</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12733,7 +16273,7 @@
         <v>131997.37209302324</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12775,7 +16315,7 @@
         <v>16565.744186046511</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12817,7 +16357,7 @@
         <v>28466.860465116279</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12859,7 +16399,7 @@
         <v>57224.930232558145</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12901,7 +16441,7 @@
         <v>19733.488372093023</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12943,7 +16483,7 @@
         <v>14889.488372093025</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12985,7 +16525,7 @@
         <v>533625.0581395349</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13027,7 +16567,7 @@
         <v>48353.139534883718</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13069,7 +16609,7 @@
         <v>12075.337209302326</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13111,7 +16651,7 @@
         <v>257239.44186046513</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13153,7 +16693,7 @@
         <v>16559.476744186046</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13195,7 +16735,7 @@
         <v>72427.071330711115</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13237,7 +16777,7 @@
         <v>6620.8367346938776</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13279,7 +16819,7 @@
         <v>2519.5173410404627</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13321,7 +16861,7 @@
         <v>252984.23121387284</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13362,8 +16902,12 @@
         <f t="shared" si="3"/>
         <v>85326.30357142858</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>414998.64792534616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13405,7 +16949,7 @@
         <v>24613.255102040817</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13447,7 +16991,7 @@
         <v>18595.469387755104</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13716,8 +17260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14446,7 +17990,7 @@
         <v>60497.899999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14488,7 +18032,7 @@
         <v>231189.41999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14530,7 +18074,7 @@
         <v>130312.16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14572,7 +18116,7 @@
         <v>254829.05999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14614,7 +18158,7 @@
         <v>284175.36000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14656,7 +18200,7 @@
         <v>315732.37</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14698,7 +18242,7 @@
         <v>365256.15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14740,7 +18284,7 @@
         <v>962623.68</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14782,7 +18326,7 @@
         <v>53724.800000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14823,8 +18367,12 @@
         <f t="shared" si="3"/>
         <v>321333.81395348842</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2112332.9069767441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14866,7 +18414,7 @@
         <v>116211.97674418605</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14908,7 +18456,7 @@
         <v>207192.5581395349</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14950,7 +18498,7 @@
         <v>54686.860465116282</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14992,7 +18540,7 @@
         <v>238679.48837209301</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15034,7 +18582,7 @@
         <v>157540.61627906977</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15076,7 +18624,7 @@
         <v>15527.139534883721</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15118,7 +18666,7 @@
         <v>27008.558139534885</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15160,7 +18708,7 @@
         <v>56180.093023255809</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15202,7 +18750,7 @@
         <v>21525.081395348836</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15244,7 +18792,7 @@
         <v>13245.139534883721</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15286,7 +18834,7 @@
         <v>538198.58139534888</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15328,7 +18876,7 @@
         <v>42804.41860465116</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15370,7 +18918,7 @@
         <v>12651.267441860466</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -15412,7 +18960,7 @@
         <v>272041.58139534883</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -15454,7 +19002,7 @@
         <v>17505.732558139534</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -15496,7 +19044,7 @@
         <v>71564.418835904013</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15538,7 +19086,7 @@
         <v>6952.3265306122448</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15580,7 +19128,7 @@
         <v>2486.6979768786127</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15622,7 +19170,7 @@
         <v>242532.25433526011</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15663,8 +19211,12 @@
         <f t="shared" si="3"/>
         <v>82614.673469387766</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>404316.55338408414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15706,7 +19258,7 @@
         <v>23713.530612244896</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15748,7 +19300,7 @@
         <v>17886.673469387755</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16015,20 +19567,32 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:G17"/>
+  <dimension ref="E1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>1</v>
       </c>
@@ -16038,8 +19602,17 @@
       <c r="G3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>124</v>
       </c>
@@ -16047,8 +19620,15 @@
         <f>PREV_EOD!P54</f>
         <v>14565558.106889578</v>
       </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="4">
+        <f>PREV_EOD!Q25</f>
+        <v>2130081.5930232559</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>125</v>
       </c>
@@ -16060,8 +19640,19 @@
         <f>F5-F$4</f>
         <v>-15153.845632294193</v>
       </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'7 AM'!N$25</f>
+        <v>2132919.0930232559</v>
+      </c>
+      <c r="L5" s="4">
+        <f>K5-K$4</f>
+        <v>2837.5</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>126</v>
       </c>
@@ -16073,8 +19664,19 @@
         <f>F6-F$4</f>
         <v>-188897.26882328652</v>
       </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'8 AM'!N$25</f>
+        <v>2139742.825581396</v>
+      </c>
+      <c r="L6" s="4">
+        <f>K6-K$4</f>
+        <v>9661.2325581400655</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>127</v>
       </c>
@@ -16086,8 +19688,19 @@
         <f>F7-F$4</f>
         <v>-57372.788370279595</v>
       </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="4">
+        <f>'9 AM'!N$25</f>
+        <v>2133896.9651162792</v>
+      </c>
+      <c r="L7" s="4">
+        <f>K7-K$4</f>
+        <v>3815.3720930232666</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>128</v>
       </c>
@@ -16099,8 +19712,19 @@
         <f t="shared" ref="G8:G17" si="0">F8-F$4</f>
         <v>-94967.231067698449</v>
       </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="4">
+        <f>'10 AM'!N$25</f>
+        <v>2115384.3488372094</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" ref="L8:L17" si="1">K8-K$4</f>
+        <v>-14697.244186046533</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>129</v>
       </c>
@@ -16112,8 +19736,19 @@
         <f t="shared" si="0"/>
         <v>-165419.96944125742</v>
       </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="4">
+        <f>'11 AM'!N$25</f>
+        <v>2090179.5232558141</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>-39902.069767441833</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>130</v>
       </c>
@@ -16125,8 +19760,19 @@
         <f t="shared" si="0"/>
         <v>-215981.15499176085</v>
       </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="4">
+        <f>'12 PM'!N$25</f>
+        <v>2125688.7558139535</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>-4392.8372093024664</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>131</v>
       </c>
@@ -16138,8 +19784,19 @@
         <f t="shared" si="0"/>
         <v>-93041.440999815241</v>
       </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="4">
+        <f>'1 PM'!N$25</f>
+        <v>2153964.6511627906</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>23883.058139534667</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>132</v>
       </c>
@@ -16151,8 +19808,19 @@
         <f t="shared" si="0"/>
         <v>-157272.99386393093</v>
       </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="4">
+        <f>'2 PM'!N$25</f>
+        <v>2134731.1046511629</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>4649.5116279069334</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>133</v>
       </c>
@@ -16164,8 +19832,19 @@
         <f t="shared" si="0"/>
         <v>-121504.76926548779</v>
       </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="4">
+        <f>'3 PM'!N$25</f>
+        <v>2113037.1627906975</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>-17044.430232558399</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>134</v>
       </c>
@@ -16177,8 +19856,19 @@
         <f t="shared" si="0"/>
         <v>-158596.20238422416</v>
       </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="4">
+        <f>'4 PM'!N$25</f>
+        <v>2106635.0348837208</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>-23446.558139535133</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>135</v>
       </c>
@@ -16190,8 +19880,19 @@
         <f t="shared" si="0"/>
         <v>-121671.975801792</v>
       </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="4">
+        <f>'5 PM'!N$25</f>
+        <v>2118894.3372093025</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>-11187.255813953467</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>136</v>
       </c>
@@ -16203,8 +19904,19 @@
         <f t="shared" si="0"/>
         <v>-118763.65513366833</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="4">
+        <f>'6 PM'!N$25</f>
+        <v>2128577.6744186049</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>-1503.9186046510004</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>137</v>
       </c>
@@ -16216,10 +19928,379 @@
         <f t="shared" si="0"/>
         <v>-165078.4578867238</v>
       </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="4">
+        <f>'7 PM'!N$25</f>
+        <v>2112332.9069767441</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>-17748.686046511866</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="4">
+        <f>PREV_EOD!P51</f>
+        <v>1952.3647959183672</v>
+      </c>
+      <c r="J26" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="4">
+        <f>PREV_EOD!Q45</f>
+        <v>404808.55456674739</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="4">
+        <f>'7 AM'!M$51</f>
+        <v>1749.5969387755104</v>
+      </c>
+      <c r="G27" s="4">
+        <f>F27-F$26</f>
+        <v>-202.76785714285688</v>
+      </c>
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="4">
+        <f>'7 AM'!N$45</f>
+        <v>406755.10254631611</v>
+      </c>
+      <c r="L27" s="4">
+        <f>K27-K$4</f>
+        <v>-1723326.4904769398</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="4">
+        <f>'8 AM'!M$51</f>
+        <v>1633.7295918367347</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:G39" si="2">F28-F$26</f>
+        <v>-318.63520408163254</v>
+      </c>
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="4">
+        <f>'8 AM'!N$45</f>
+        <v>404822.21711403748</v>
+      </c>
+      <c r="L28" s="4">
+        <f>K28-K$4</f>
+        <v>-1725259.3759092186</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="4">
+        <f>'9 AM'!M$51</f>
+        <v>1401.9948979591836</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>-550.36989795918362</v>
+      </c>
+      <c r="J29" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="4">
+        <f>'9 AM'!N$45</f>
+        <v>413402.06027126155</v>
+      </c>
+      <c r="L29" s="4">
+        <f>K29-K$4</f>
+        <v>-1716679.5327519944</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="4">
+        <f>'10 AM'!M$51</f>
+        <v>2114.579081632653</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="2"/>
+        <v>162.21428571428578</v>
+      </c>
+      <c r="J30" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="4">
+        <f>'10 AM'!N$45</f>
+        <v>411309.1212609518</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" ref="L30:L39" si="3">K30-K$4</f>
+        <v>-1718772.4717623042</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="4">
+        <f>'11 AM'!M$51</f>
+        <v>1712.9056122448978</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="2"/>
+        <v>-239.4591836734694</v>
+      </c>
+      <c r="J31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="4">
+        <f>'11 AM'!N$45</f>
+        <v>406132.98381203826</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="3"/>
+        <v>-1723948.6092112176</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="4">
+        <f>'12 PM'!M$51</f>
+        <v>2108.7857142857147</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="2"/>
+        <v>156.42091836734744</v>
+      </c>
+      <c r="J32" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="4">
+        <f>'12 PM'!N$45</f>
+        <v>408594.16620050644</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="3"/>
+        <v>-1721487.4268227494</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="4">
+        <f>'1 PM'!M$51</f>
+        <v>1693.5943877551019</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="2"/>
+        <v>-258.7704081632653</v>
+      </c>
+      <c r="J33" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="4">
+        <f>'1 PM'!N$45</f>
+        <v>402506.04739236366</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="3"/>
+        <v>-1727575.5456308923</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="4">
+        <f>'2 PM'!M$51</f>
+        <v>2122.3035714285716</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="2"/>
+        <v>169.93877551020432</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" s="4">
+        <f>'2 PM'!N$45</f>
+        <v>401688.56782693672</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1728393.0251963192</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="4">
+        <f>'3 PM'!M$51</f>
+        <v>1359.5102040816325</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="2"/>
+        <v>-592.8545918367347</v>
+      </c>
+      <c r="J35" t="s">
+        <v>133</v>
+      </c>
+      <c r="K35" s="4">
+        <f>'3 PM'!N$45</f>
+        <v>412261.17866633873</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="3"/>
+        <v>-1717820.4143569171</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="4">
+        <f>'4 PM'!M$51</f>
+        <v>1510.1377551020407</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="2"/>
+        <v>-442.22704081632651</v>
+      </c>
+      <c r="J36" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="4">
+        <f>'4 PM'!N$45</f>
+        <v>403602.46705915465</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="3"/>
+        <v>-1726479.1259641014</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="4">
+        <f>'5 PM'!M$51</f>
+        <v>2052.7831632653065</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="2"/>
+        <v>100.41836734693925</v>
+      </c>
+      <c r="J37" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="4">
+        <f>'5 PM'!N$45</f>
+        <v>413793.00781605917</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="3"/>
+        <v>-1716288.5852071969</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="4">
+        <f>'6 PM'!M$51</f>
+        <v>2074.0255102040819</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="2"/>
+        <v>121.66071428571468</v>
+      </c>
+      <c r="J38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="4">
+        <f>'6 PM'!N$45</f>
+        <v>414998.64792534616</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="3"/>
+        <v>-1715082.9450979098</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="4">
+        <f>'7 PM'!M$51</f>
+        <v>1983.2627551020407</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="2"/>
+        <v>30.897959183673493</v>
+      </c>
+      <c r="J39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" s="4">
+        <f>'7 PM'!N$45</f>
+        <v>404316.55338408414</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="3"/>
+        <v>-1725765.0396391717</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16227,8 +20308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A38" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16957,7 +21038,7 @@
         <v>55365.88</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16999,7 +21080,7 @@
         <v>230185.34</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17041,7 +21122,7 @@
         <v>116203.56</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17083,7 +21164,7 @@
         <v>259101.36000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17125,7 +21206,7 @@
         <v>289515.52000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17167,7 +21248,7 @@
         <v>309768.06999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17209,7 +21290,7 @@
         <v>367641.96</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17251,7 +21332,7 @@
         <v>977073.6</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17293,7 +21374,7 @@
         <v>50346.400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17334,8 +21415,12 @@
         <f t="shared" si="3"/>
         <v>323328.37209302327</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f>SUM(P25:P40)</f>
+        <v>2130081.5930232559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17377,7 +21462,7 @@
         <v>125206.39534883721</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17419,7 +21504,7 @@
         <v>236770.04651162794</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17461,7 +21546,7 @@
         <v>54711.383720930236</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17503,7 +21588,7 @@
         <v>235021.90697674418</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17545,7 +21630,7 @@
         <v>155960.32558139536</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17587,7 +21672,7 @@
         <v>13839.406976744185</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17629,7 +21714,7 @@
         <v>30324.697674418603</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17671,7 +21756,7 @@
         <v>64431.627906976748</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17713,7 +21798,7 @@
         <v>16046.441860465115</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17755,7 +21840,7 @@
         <v>12775.325581395349</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17797,7 +21882,7 @@
         <v>528312.95348837203</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17839,7 +21924,7 @@
         <v>42851.046511627908</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17881,7 +21966,7 @@
         <v>11595.39534883721</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17923,7 +22008,7 @@
         <v>261295.39534883722</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17965,7 +22050,7 @@
         <v>17610.872093023256</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -18007,7 +22092,7 @@
         <v>71748.984125160205</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -18049,7 +22134,7 @@
         <v>5243.3622448979595</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18091,7 +22176,7 @@
         <v>2350.3713872832373</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18133,7 +22218,7 @@
         <v>248777.43352601156</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18174,8 +22259,12 @@
         <f t="shared" si="3"/>
         <v>81415.793367346938</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <f>SUM(P45:P49)</f>
+        <v>404808.55456674739</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18217,7 +22306,7 @@
         <v>24449.938775510207</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18259,7 +22348,7 @@
         <v>18139.15306122449</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18529,8 +22618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19259,7 +23348,7 @@
         <v>54691.6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19301,7 +23390,7 @@
         <v>220467.28</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19343,7 +23432,7 @@
         <v>125974.64000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19385,7 +23474,7 @@
         <v>271718.28000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19427,7 +23516,7 @@
         <v>290752</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19469,7 +23558,7 @@
         <v>326114.67</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19511,7 +23600,7 @@
         <v>368567.07</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19553,7 +23642,7 @@
         <v>964713.92</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19595,7 +23684,7 @@
         <v>53823.679999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19636,8 +23725,12 @@
         <f t="shared" si="3"/>
         <v>316924.79069767444</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2132919.0930232559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -19679,7 +23772,7 @@
         <v>116314.18604651163</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -19721,7 +23814,7 @@
         <v>207117.48837209301</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -19763,7 +23856,7 @@
         <v>49610.546511627908</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -19805,7 +23898,7 @@
         <v>256432.13953488375</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -19847,7 +23940,7 @@
         <v>157396.95348837209</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -19889,7 +23982,7 @@
         <v>14436.60465116279</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19931,7 +24024,7 @@
         <v>30065.000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19973,7 +24066,7 @@
         <v>65905.116279069771</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -20015,7 +24108,7 @@
         <v>23238.779069767439</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -20057,7 +24150,7 @@
         <v>13480.046511627907</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -20099,7 +24192,7 @@
         <v>533568.24418604653</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -20141,7 +24234,7 @@
         <v>40449.70930232558</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -20183,7 +24276,7 @@
         <v>12977.627906976744</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -20225,7 +24318,7 @@
         <v>277268.32558139536</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -20267,7 +24360,7 @@
         <v>17733.534883720928</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -20309,7 +24402,7 @@
         <v>72365.416909002524</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -20351,7 +24444,7 @@
         <v>6352.0612244897957</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -20393,7 +24486,7 @@
         <v>2320.0765895953755</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -20435,7 +24528,7 @@
         <v>243829.08670520229</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -20476,8 +24569,12 @@
         <f t="shared" si="3"/>
         <v>77703.381377551006</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>406755.10254631611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -20519,7 +24616,7 @@
         <v>24806.265306122452</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -20561,7 +24658,7 @@
         <v>17981.642857142855</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -20830,8 +24927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21560,7 +25657,7 @@
         <v>61209.64</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -21602,7 +25699,7 @@
         <v>210193.39</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -21644,7 +25741,7 @@
         <v>120401.16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -21686,7 +25783,7 @@
         <v>256628.88</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -21728,7 +25825,7 @@
         <v>287329.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -21770,7 +25867,7 @@
         <v>321762.94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -21812,7 +25909,7 @@
         <v>370173.84</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -21854,7 +25951,7 @@
         <v>968303.68</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -21896,7 +25993,7 @@
         <v>52900.800000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -21937,8 +26034,12 @@
         <f t="shared" si="3"/>
         <v>327317.48837209301</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2139742.825581396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -21980,7 +26081,7 @@
         <v>114597.06976744188</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -22022,7 +26123,7 @@
         <v>236644.93023255814</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -22064,7 +26165,7 @@
         <v>61283.616279069764</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -22106,7 +26207,7 @@
         <v>239750</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -22148,7 +26249,7 @@
         <v>153546.79069767441</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -22190,7 +26291,7 @@
         <v>13917.302325581397</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -22232,7 +26333,7 @@
         <v>28406.930232558145</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -22274,7 +26375,7 @@
         <v>57171.348837209305</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -22316,7 +26417,7 @@
         <v>16877.325581395347</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -22358,7 +26459,7 @@
         <v>13209</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -22400,7 +26501,7 @@
         <v>552742.95348837215</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -22442,7 +26543,7 @@
         <v>42128.313953488374</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -22484,7 +26585,7 @@
         <v>11192.244186046511</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -22526,7 +26627,7 @@
         <v>252242.67441860467</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -22568,7 +26669,7 @@
         <v>18714.837209302324</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -22610,7 +26711,7 @@
         <v>72100.826631899938</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -22652,7 +26753,7 @@
         <v>5160.4897959183672</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -22694,7 +26795,7 @@
         <v>2282.2080924855491</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -22736,7 +26837,7 @@
         <v>245691.74566473989</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -22777,8 +26878,12 @@
         <f t="shared" si="3"/>
         <v>80047.114795918373</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>404822.21711403748</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -22820,7 +26925,7 @@
         <v>24310.37755102041</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -22862,7 +26967,7 @@
         <v>18009.438775510203</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -23131,8 +27236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23861,7 +27966,7 @@
         <v>53886.21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23903,7 +28008,7 @@
         <v>232032.13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23945,7 +28050,7 @@
         <v>121847</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23987,7 +28092,7 @@
         <v>270336.59999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -24029,7 +28134,7 @@
         <v>292328.95999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -24071,7 +28176,7 @@
         <v>317565.83999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -24113,7 +28218,7 @@
         <v>371667</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -24155,7 +28260,7 @@
         <v>966849.6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -24197,7 +28302,7 @@
         <v>56312.160000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -24238,8 +28343,12 @@
         <f t="shared" si="3"/>
         <v>347420.53488372092</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2133896.9651162792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -24281,7 +28390,7 @@
         <v>117765.55813953489</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -24323,7 +28432,7 @@
         <v>212922.88372093023</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24365,7 +28474,7 @@
         <v>39972.906976744191</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -24407,7 +28516,7 @@
         <v>248425.60465116278</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -24449,7 +28558,7 @@
         <v>157971.60465116278</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -24491,7 +28600,7 @@
         <v>13579.755813953489</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -24533,7 +28642,7 @@
         <v>34679.627906976741</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -24575,7 +28684,7 @@
         <v>59314.604651162786</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -24617,7 +28726,7 @@
         <v>17085.046511627908</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -24659,7 +28768,7 @@
         <v>14238.976744186048</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -24701,7 +28810,7 @@
         <v>536693.01162790693</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -24743,7 +28852,7 @@
         <v>47164.127906976748</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -24785,7 +28894,7 @@
         <v>11633.790697674418</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -24827,7 +28936,7 @@
         <v>257260.34883720931</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -24869,7 +28978,7 @@
         <v>17768.58139534884</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -24911,7 +29020,7 @@
         <v>72391.571883148456</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -24953,7 +29062,7 @@
         <v>5229.9234693877561</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -24995,7 +29104,7 @@
         <v>2706.3352601156071</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -25037,7 +29146,7 @@
         <v>246805.82658959538</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -25078,8 +29187,12 @@
         <f t="shared" si="3"/>
         <v>86108.405612244896</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>413402.06027126155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -25121,7 +29234,7 @@
         <v>24271.775510204083</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -25163,7 +29276,7 @@
         <v>18757.612244897959</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -25432,8 +29545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26162,7 +30275,7 @@
         <v>58269.03</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -26204,7 +30317,7 @@
         <v>233807.2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -26246,7 +30359,7 @@
         <v>123782.56</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -26288,7 +30401,7 @@
         <v>261792</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -26330,7 +30443,7 @@
         <v>297095.67999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -26372,7 +30485,7 @@
         <v>321276.96000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -26414,7 +30527,7 @@
         <v>371537.16</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -26456,7 +30569,7 @@
         <v>955489.6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -26498,7 +30611,7 @@
         <v>56658.240000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -26539,8 +30652,12 @@
         <f t="shared" si="3"/>
         <v>316084.97674418607</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2115384.3488372094</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -26582,7 +30699,7 @@
         <v>125472.13953488374</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -26624,7 +30741,7 @@
         <v>229488.27906976742</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -26666,7 +30783,7 @@
         <v>56550.627906976748</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -26708,7 +30825,7 @@
         <v>237675.8837209302</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -26750,7 +30867,7 @@
         <v>134353.4418604651</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -26792,7 +30909,7 @@
         <v>14748.186046511626</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -26834,7 +30951,7 @@
         <v>33181.372093023259</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -26876,7 +30993,7 @@
         <v>62583.069767441862</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -26918,7 +31035,7 @@
         <v>20798.058139534882</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -26960,7 +31077,7 @@
         <v>12865.674418604651</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -27002,7 +31119,7 @@
         <v>550214.73255813948</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -27044,7 +31161,7 @@
         <v>40053.372093023259</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -27086,7 +31203,7 @@
         <v>11883.36046511628</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -27128,7 +31245,7 @@
         <v>252556.27906976745</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -27170,7 +31287,7 @@
         <v>16874.89534883721</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -27212,7 +31329,7 @@
         <v>72153.805179652627</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -27254,7 +31371,7 @@
         <v>5747.3163265306121</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -27296,7 +31413,7 @@
         <v>2304.9291907514453</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -27338,7 +31455,7 @@
         <v>247290.82080924854</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -27379,8 +31496,12 @@
         <f t="shared" si="3"/>
         <v>83466.238520408166</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>411309.1212609518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -27422,7 +31543,7 @@
         <v>23716.500000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -27464,7 +31585,7 @@
         <v>18356.887755102041</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -27733,8 +31854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27840,7 +31961,7 @@
       </c>
       <c r="S2">
         <f ca="1">RANDBETWEEN(3000,3500)/100</f>
-        <v>34.229999999999997</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -27892,7 +32013,7 @@
       </c>
       <c r="S3">
         <f ca="1">RANDBETWEEN(7200,7800)/100</f>
-        <v>73.81</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -27944,7 +32065,7 @@
       </c>
       <c r="S4">
         <f ca="1">RANDBETWEEN(14000,15000)/100</f>
-        <v>141.51</v>
+        <v>143.21</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -27996,7 +32117,7 @@
       </c>
       <c r="S5">
         <f ca="1">RANDBETWEEN(22500,22900)/100</f>
-        <v>226.35</v>
+        <v>226.9</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -28048,7 +32169,7 @@
       </c>
       <c r="S6">
         <f ca="1">RANDBETWEEN(4500,5500)/100</f>
-        <v>51.92</v>
+        <v>48.96</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -28100,7 +32221,7 @@
       </c>
       <c r="S7">
         <f ca="1">RANDBETWEEN(13000,13500)/100</f>
-        <v>130.69999999999999</v>
+        <v>132.65</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -28152,7 +32273,7 @@
       </c>
       <c r="S8">
         <f ca="1">RANDBETWEEN(5300,6300)/100</f>
-        <v>61.82</v>
+        <v>60.03</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -28198,7 +32319,7 @@
       </c>
       <c r="S9">
         <f ca="1">RANDBETWEEN(2800,3100)/100</f>
-        <v>30.55</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -28244,7 +32365,7 @@
       </c>
       <c r="S10">
         <f ca="1">RANDBETWEEN(5900,6500)/100</f>
-        <v>60.58</v>
+        <v>64.430000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -28290,7 +32411,7 @@
       </c>
       <c r="S11">
         <f ca="1">RANDBETWEEN(189000,192000)/100</f>
-        <v>1896</v>
+        <v>1896.89</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -28336,7 +32457,7 @@
       </c>
       <c r="S12">
         <f ca="1">RANDBETWEEN(15800,16700)/100</f>
-        <v>164.93</v>
+        <v>159.53</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -28382,7 +32503,7 @@
       </c>
       <c r="S13">
         <f ca="1">RANDBETWEEN(117000,123000)/100</f>
-        <v>1179.1300000000001</v>
+        <v>1196.96</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -28428,7 +32549,7 @@
       </c>
       <c r="S14">
         <f ca="1">RANDBETWEEN(22500,25500)/100</f>
-        <v>232.3</v>
+        <v>245.21</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -28474,7 +32595,7 @@
       </c>
       <c r="S15">
         <f ca="1">RANDBETWEEN(35000,40000)/100</f>
-        <v>368.81</v>
+        <v>391.38</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -28520,7 +32641,7 @@
       </c>
       <c r="S16">
         <f ca="1">RANDBETWEEN(2800,3300)/100</f>
-        <v>32.090000000000003</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -28566,7 +32687,7 @@
       </c>
       <c r="S17">
         <f ca="1">RANDBETWEEN(11500,13500)/100</f>
-        <v>130.54</v>
+        <v>121.58</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -28612,7 +32733,7 @@
       </c>
       <c r="S18">
         <f ca="1">RANDBETWEEN(4900,5600)/100</f>
-        <v>54.42</v>
+        <v>53.79</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -28658,7 +32779,7 @@
       </c>
       <c r="S19">
         <f ca="1">RANDBETWEEN(14000,15000)/100</f>
-        <v>145.58000000000001</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -28704,7 +32825,7 @@
       </c>
       <c r="S20">
         <f ca="1">RANDBETWEEN(15800,16700)/100</f>
-        <v>159.44999999999999</v>
+        <v>158.22</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -28750,7 +32871,7 @@
       </c>
       <c r="S21">
         <f ca="1">RANDBETWEEN(14000,15000)/100</f>
-        <v>148.15</v>
+        <v>144.07</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -28796,7 +32917,7 @@
       </c>
       <c r="S22">
         <f ca="1">RANDBETWEEN(22500,22900)/100</f>
-        <v>225.74</v>
+        <v>225.11</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -28842,7 +32963,7 @@
       </c>
       <c r="S23">
         <f ca="1">RANDBETWEEN(41800,43500)/100</f>
-        <v>427.13</v>
+        <v>422.26</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -28888,7 +33009,7 @@
       </c>
       <c r="S24">
         <f ca="1">RANDBETWEEN(3000,3500)/100</f>
-        <v>30.55</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -28932,9 +33053,13 @@
         <f t="shared" si="3"/>
         <v>345740.90697674418</v>
       </c>
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2090179.5232558141</v>
+      </c>
       <c r="S25">
         <f ca="1">RANDBETWEEN(12000,13500)/100</f>
-        <v>132.85</v>
+        <v>121.75</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -28980,7 +33105,7 @@
       </c>
       <c r="S26">
         <f ca="1">RANDBETWEEN(5500,6500)/100</f>
-        <v>63.47</v>
+        <v>55.83</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -29026,7 +33151,7 @@
       </c>
       <c r="S27">
         <f ca="1">RANDBETWEEN(8000,9500)/100</f>
-        <v>86.17</v>
+        <v>87.65</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -29072,7 +33197,7 @@
       </c>
       <c r="S28">
         <f ca="1">RANDBETWEEN(1500,2500)/100</f>
-        <v>21.54</v>
+        <v>19.440000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -29118,7 +33243,7 @@
       </c>
       <c r="S29">
         <f ca="1">RANDBETWEEN(10500,11500)/100</f>
-        <v>109.29</v>
+        <v>111.52</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -29164,7 +33289,7 @@
       </c>
       <c r="S30">
         <f ca="1">RANDBETWEEN(4500,5500)/100</f>
-        <v>51.7</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -29210,7 +33335,7 @@
       </c>
       <c r="S31">
         <f ca="1">RANDBETWEEN(500,700)/100</f>
-        <v>6.58</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -29256,7 +33381,7 @@
       </c>
       <c r="S32">
         <f ca="1">RANDBETWEEN(1300,1800)/100</f>
-        <v>15.71</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -29302,7 +33427,7 @@
       </c>
       <c r="S33">
         <f ca="1">RANDBETWEEN(2000,2500)/100</f>
-        <v>23.58</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -29348,7 +33473,7 @@
       </c>
       <c r="S34">
         <f ca="1">RANDBETWEEN(500,900)/100</f>
-        <v>5.04</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -29394,7 +33519,7 @@
       </c>
       <c r="S35">
         <f ca="1">RANDBETWEEN(700,900)/100</f>
-        <v>8.32</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -29440,7 +33565,7 @@
       </c>
       <c r="S36">
         <f ca="1">RANDBETWEEN(18500,19500)/100</f>
-        <v>187.12</v>
+        <v>185.66</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -29486,7 +33611,7 @@
       </c>
       <c r="S37">
         <f ca="1">RANDBETWEEN(1700,2100)/100</f>
-        <v>20.58</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -29532,7 +33657,7 @@
       </c>
       <c r="S38">
         <f ca="1">RANDBETWEEN(500,700)/100</f>
-        <v>5.24</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -29578,7 +33703,7 @@
       </c>
       <c r="S39">
         <f ca="1">RANDBETWEEN(12000,13500)/100</f>
-        <v>130.59</v>
+        <v>124.63</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -29624,7 +33749,7 @@
       </c>
       <c r="S40">
         <f ca="1">RANDBETWEEN(800,1100)/100</f>
-        <v>10.119999999999999</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -29670,7 +33795,7 @@
       </c>
       <c r="S41">
         <f ca="1">RANDBETWEEN(4495000,4550000)/100</f>
-        <v>45263.12</v>
+        <v>45378.05</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -29716,7 +33841,7 @@
       </c>
       <c r="S42">
         <f ca="1">RANDBETWEEN(2300,3300)/100</f>
-        <v>24.29</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -29762,7 +33887,7 @@
       </c>
       <c r="S43">
         <f ca="1">RANDBETWEEN(900,1100)/100</f>
-        <v>9.4600000000000009</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -29808,7 +33933,7 @@
       </c>
       <c r="S44">
         <f ca="1">RANDBETWEEN(69000,72000)/100</f>
-        <v>707.52</v>
+        <v>708.11</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -29852,9 +33977,13 @@
         <f t="shared" si="3"/>
         <v>79262.4400510204</v>
       </c>
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>406132.98381203826</v>
+      </c>
       <c r="S45">
         <f ca="1">RANDBETWEEN(30000,33500)/100</f>
-        <v>332.09</v>
+        <v>304.62</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -29900,7 +34029,7 @@
       </c>
       <c r="S46">
         <f ca="1">RANDBETWEEN(7700,8700)/100</f>
-        <v>86.86</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -29946,7 +34075,7 @@
       </c>
       <c r="S47">
         <f ca="1">RANDBETWEEN(7700,8100)/100</f>
-        <v>79.989999999999995</v>
+        <v>79.260000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -29992,7 +34121,7 @@
       </c>
       <c r="S48">
         <f ca="1">RANDBETWEEN(24500,26700)/100</f>
-        <v>257.63</v>
+        <v>248.35</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -30038,7 +34167,7 @@
       </c>
       <c r="S49">
         <f ca="1">RANDBETWEEN(352000,362000)/100</f>
-        <v>3548.85</v>
+        <v>3542.99</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -30084,7 +34213,7 @@
       </c>
       <c r="S50">
         <f ca="1">RANDBETWEEN(4400,5500)/100</f>
-        <v>51.9</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -30130,7 +34259,7 @@
       </c>
       <c r="S51">
         <f ca="1">RANDBETWEEN(700,1100)/100</f>
-        <v>8.2100000000000009</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -30176,7 +34305,7 @@
       </c>
       <c r="S52">
         <f ca="1">RANDBETWEEN(500,700)/100</f>
-        <v>5.65</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -30222,7 +34351,7 @@
       </c>
       <c r="S53">
         <f ca="1">RANDBETWEEN(415000,430000)/100</f>
-        <v>4211.2299999999996</v>
+        <v>4284.67</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -30242,8 +34371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30972,7 +35101,7 @@
         <v>58643.63</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -31014,7 +35143,7 @@
         <v>215948.91999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -31056,7 +35185,7 @@
         <v>124808.64000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -31098,7 +35227,7 @@
         <v>265009.86000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -31140,7 +35269,7 @@
         <v>287669.76000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -31182,7 +35311,7 @@
         <v>318692.43000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -31224,7 +35353,7 @@
         <v>365499.6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -31266,7 +35395,7 @@
         <v>985934.4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -31308,7 +35437,7 @@
         <v>55982.559999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -31349,8 +35478,12 @@
         <f t="shared" si="3"/>
         <v>315087.69767441857</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2125688.7558139535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -31392,7 +35525,7 @@
         <v>114474.41860465116</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -31434,7 +35567,7 @@
         <v>220705.11627906977</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -31476,7 +35609,7 @@
         <v>37152.732558139534</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -31518,7 +35651,7 @@
         <v>247890.34883720931</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -31560,7 +35693,7 @@
         <v>147599.15116279069</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -31602,7 +35735,7 @@
         <v>13709.581395348838</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -31644,7 +35777,7 @@
         <v>34559.767441860466</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -31686,7 +35819,7 @@
         <v>59716.465116279069</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -31728,7 +35861,7 @@
         <v>14618.360465116279</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -31770,7 +35903,7 @@
         <v>14293.186046511628</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -31812,7 +35945,7 @@
         <v>551720.30232558143</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -31854,7 +35987,7 @@
         <v>44809.41860465116</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -31896,7 +36029,7 @@
         <v>12708.86046511628</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -31938,7 +36071,7 @@
         <v>281888.76744186052</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -31980,7 +36113,7 @@
         <v>14754.581395348838</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -32022,7 +36155,7 @@
         <v>71634.621779290232</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -32064,7 +36197,7 @@
         <v>5545.7346938775518</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -32106,7 +36239,7 @@
         <v>2373.092485549133</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -32148,7 +36281,7 @@
         <v>246384.09248554913</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -32189,8 +36322,12 @@
         <f t="shared" si="3"/>
         <v>82972.279336734689</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>408594.16620050644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -32232,7 +36369,7 @@
         <v>23805.581632653062</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -32274,7 +36411,7 @@
         <v>18382.367346938776</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -32543,8 +36680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H53"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33273,7 +37410,7 @@
         <v>52818.6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -33315,7 +37452,7 @@
         <v>217150.23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -33357,7 +37494,7 @@
         <v>114757.72</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -33399,7 +37536,7 @@
         <v>263319.12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -33441,7 +37578,7 @@
         <v>284390.39999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -33483,7 +37620,7 @@
         <v>316593.88</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -33525,7 +37662,7 @@
         <v>366229.95</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -33567,7 +37704,7 @@
         <v>969894.08</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -33609,7 +37746,7 @@
         <v>49637.760000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -33650,8 +37787,12 @@
         <f t="shared" si="3"/>
         <v>342827.80232558138</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>SUM(M25:M40)</f>
+        <v>2153964.6511627906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -33693,7 +37834,7 @@
         <v>119850.62790697676</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -33735,7 +37876,7 @@
         <v>204940.46511627908</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -33777,7 +37918,7 @@
         <v>54049.255813953489</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -33819,7 +37960,7 @@
         <v>253198.3023255814</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -33861,7 +38002,7 @@
         <v>140990.66279069768</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -33903,7 +38044,7 @@
         <v>14384.674418604651</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -33945,7 +38086,7 @@
         <v>31483.348837209302</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -33987,7 +38128,7 @@
         <v>61966.883720930229</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -34029,7 +38170,7 @@
         <v>21602.976744186049</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -34071,7 +38212,7 @@
         <v>15142.465116279071</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -34113,7 +38254,7 @@
         <v>553112.24418604653</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -34155,7 +38296,7 @@
         <v>41475.523255813954</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -34197,7 +38338,7 @@
         <v>10078.779069767443</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -34239,7 +38380,7 @@
         <v>273212.37209302327</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -34281,7 +38422,7 @@
         <v>15648.267441860466</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -34323,7 +38464,7 @@
         <v>71848.08011667477</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -34365,7 +38506,7 @@
         <v>5541.2551020408155</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -34407,7 +38548,7 @@
         <v>2373.092485549133</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -34449,7 +38590,7 @@
         <v>252615.21387283233</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -34490,8 +38631,12 @@
         <f t="shared" si="3"/>
         <v>77386.938775510207</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>SUM(M45:M49)</f>
+        <v>402506.04739236366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -34533,7 +38678,7 @@
         <v>24334.132653061224</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -34575,7 +38720,7 @@
         <v>17926.051020408162</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
